--- a/每周计划表.xlsx
+++ b/每周计划表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5950C7B-AC29-4EB8-A349-93A94D62E3B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777675B6-8BF3-403E-AC6F-56413A17AC84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="19200" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1周" sheetId="5" r:id="rId1"/>
@@ -1055,6 +1055,237 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1127,18 +1358,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,225 +1365,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1653,8 +1653,8 @@
   </sheetPr>
   <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:Q95"/>
+    <sheetView tabSelected="1" topLeftCell="I55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85:Q95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1666,50 +1666,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
     </row>
     <row r="2" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
     </row>
     <row r="3" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
@@ -1736,17 +1736,17 @@
       <c r="H3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="58" t="s">
+      <c r="I3" s="133"/>
+      <c r="J3" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="137"/>
     </row>
     <row r="4" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1759,15 +1759,15 @@
       <c r="F4" s="21"/>
       <c r="G4" s="3"/>
       <c r="H4" s="21"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="63"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="140"/>
     </row>
     <row r="5" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1780,34 +1780,34 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="140"/>
     </row>
     <row r="6" spans="1:17" ht="6.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="63"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="140"/>
     </row>
     <row r="7" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1820,206 +1820,206 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="63"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="140"/>
     </row>
     <row r="8" spans="1:17" ht="6.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="63"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="140"/>
     </row>
     <row r="9" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="80" t="s">
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="63"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="140"/>
     </row>
     <row r="10" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="74" t="s">
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="63"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="140"/>
     </row>
     <row r="11" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="74" t="s">
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="63"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="140"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="74" t="s">
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="63"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="139"/>
+      <c r="O12" s="139"/>
+      <c r="P12" s="139"/>
+      <c r="Q12" s="140"/>
     </row>
     <row r="13" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74" t="s">
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="66"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="142"/>
+      <c r="O13" s="142"/>
+      <c r="P13" s="142"/>
+      <c r="Q13" s="143"/>
     </row>
     <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
     </row>
     <row r="15" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="79" t="s">
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
     </row>
     <row r="16" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93" t="s">
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="56"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="133"/>
       <c r="J16" s="29" t="s">
         <v>76</v>
       </c>
@@ -2070,20 +2070,20 @@
       <c r="H17" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="75" t="s">
+      <c r="I17" s="133"/>
+      <c r="J17" s="127" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="116" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="15" t="s">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="56"/>
+      <c r="I18" s="133"/>
       <c r="J18" s="39" t="s">
         <v>88</v>
       </c>
@@ -2112,19 +2112,19 @@
       <c r="Q18" s="35"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="85"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="56"/>
+      <c r="I19" s="133"/>
       <c r="J19" s="17" t="s">
         <v>89</v>
       </c>
@@ -2137,19 +2137,19 @@
       <c r="Q19" s="30"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="85"/>
+      <c r="E20" s="117"/>
       <c r="F20" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="56"/>
+      <c r="I20" s="133"/>
       <c r="J20" s="17" t="s">
         <v>78</v>
       </c>
@@ -2162,19 +2162,19 @@
       <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="88"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="56"/>
+      <c r="I21" s="133"/>
       <c r="J21" s="19" t="s">
         <v>79</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="Q21" s="40"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="51" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="116" t="s">
         <v>117</v>
       </c>
       <c r="F22" s="15" t="s">
@@ -2203,32 +2203,32 @@
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="86" t="s">
+      <c r="I22" s="133"/>
+      <c r="J22" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="85"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="56"/>
+      <c r="I23" s="133"/>
       <c r="J23" s="15" t="s">
         <v>80</v>
       </c>
@@ -2241,19 +2241,19 @@
       <c r="Q23" s="35"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="85"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="56"/>
+      <c r="I24" s="133"/>
       <c r="J24" s="26" t="s">
         <v>81</v>
       </c>
@@ -2266,19 +2266,19 @@
       <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="88"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="17" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="56"/>
+      <c r="I25" s="133"/>
       <c r="J25" s="17" t="s">
         <v>82</v>
       </c>
@@ -2291,7 +2291,7 @@
       <c r="Q25" s="32"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="116" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="15" t="s">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="56"/>
+      <c r="I26" s="133"/>
       <c r="J26" s="19" t="s">
         <v>84</v>
       </c>
@@ -2320,44 +2320,44 @@
       <c r="Q26" s="33"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="85"/>
+      <c r="E27" s="117"/>
       <c r="F27" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="86" t="s">
+      <c r="I27" s="133"/>
+      <c r="J27" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="85"/>
+      <c r="E28" s="117"/>
       <c r="F28" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="56"/>
+      <c r="I28" s="133"/>
       <c r="J28" s="15" t="s">
         <v>90</v>
       </c>
@@ -2370,19 +2370,19 @@
       <c r="Q28" s="35"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="85"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="17" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="56"/>
+      <c r="I29" s="133"/>
       <c r="J29" s="17" t="s">
         <v>91</v>
       </c>
@@ -2395,7 +2395,7 @@
       <c r="Q29" s="32"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="51" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="84" t="s">
+      <c r="E30" s="116" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="15" t="s">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="56"/>
+      <c r="I30" s="133"/>
       <c r="J30" s="38" t="s">
         <v>92</v>
       </c>
@@ -2424,44 +2424,44 @@
       <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="85"/>
+      <c r="E31" s="117"/>
       <c r="F31" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="89" t="s">
+      <c r="I31" s="133"/>
+      <c r="J31" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="120"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="85"/>
+      <c r="E32" s="117"/>
       <c r="F32" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="56"/>
+      <c r="I32" s="133"/>
       <c r="J32" s="15" t="s">
         <v>93</v>
       </c>
@@ -2474,19 +2474,19 @@
       <c r="Q32" s="34"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="87"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="88"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="56"/>
+      <c r="I33" s="133"/>
       <c r="J33" s="50" t="s">
         <v>96</v>
       </c>
@@ -2499,7 +2499,7 @@
       <c r="Q33" s="32"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="51" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -2507,150 +2507,150 @@
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="108"/>
+      <c r="E34" s="99"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="111" t="s">
+      <c r="I34" s="133"/>
+      <c r="J34" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="111"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
     </row>
     <row r="35" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="109"/>
+      <c r="E35" s="100"/>
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
       <c r="H35" s="43"/>
-      <c r="I35" s="56"/>
+      <c r="I35" s="133"/>
       <c r="J35" s="49" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="83"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="109"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
       <c r="H36" s="43"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="112" t="s">
+      <c r="I36" s="133"/>
+      <c r="J36" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="K36" s="112"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="115"/>
+      <c r="O36" s="115"/>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="115"/>
     </row>
     <row r="37" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="87"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="110"/>
+      <c r="E37" s="101"/>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
       <c r="H37" s="43"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="112"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="115"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="115"/>
+      <c r="P37" s="115"/>
+      <c r="Q37" s="115"/>
     </row>
     <row r="38" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="96" t="s">
+      <c r="A38" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="96" t="s">
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="112"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="112"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="115"/>
+      <c r="O38" s="115"/>
+      <c r="P38" s="115"/>
+      <c r="Q38" s="115"/>
     </row>
     <row r="39" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="99"/>
-      <c r="P39" s="99"/>
-      <c r="Q39" s="99"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="102"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
     </row>
     <row r="40" spans="1:17" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="100" t="s">
+      <c r="A40" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="103" t="s">
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="76" t="s">
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="78"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="110"/>
+      <c r="P40" s="110"/>
+      <c r="Q40" s="111"/>
     </row>
     <row r="41" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
@@ -2677,22 +2677,22 @@
       <c r="H41" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="56"/>
+      <c r="I41" s="133"/>
       <c r="J41" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="106" t="s">
+      <c r="K41" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="L41" s="106"/>
-      <c r="M41" s="106"/>
-      <c r="N41" s="106"/>
-      <c r="O41" s="106"/>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="107"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="113"/>
     </row>
     <row r="42" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="51" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
-      <c r="E42" s="82" t="s">
+      <c r="E42" s="51" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="15" t="s">
@@ -2708,99 +2708,99 @@
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="16"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="113" t="s">
+      <c r="I42" s="133"/>
+      <c r="J42" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="K42" s="116" t="s">
+      <c r="K42" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="117"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="95"/>
     </row>
     <row r="43" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="83"/>
+      <c r="E43" s="52"/>
       <c r="F43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="18"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="118" t="s">
+      <c r="I43" s="133"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L43" s="118"/>
-      <c r="M43" s="118"/>
-      <c r="N43" s="118"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="119"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
+      <c r="Q43" s="82"/>
     </row>
     <row r="44" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="83"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
-      <c r="E44" s="83"/>
+      <c r="E44" s="52"/>
       <c r="F44" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="18"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="120" t="s">
+      <c r="I44" s="133"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="L44" s="120"/>
-      <c r="M44" s="120"/>
-      <c r="N44" s="120"/>
-      <c r="O44" s="120"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="121"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="74"/>
     </row>
     <row r="45" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="87"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="20"/>
-      <c r="E45" s="87"/>
+      <c r="E45" s="66"/>
       <c r="F45" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="19"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="113" t="s">
+      <c r="I45" s="133"/>
+      <c r="J45" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="K45" s="116" t="s">
+      <c r="K45" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="L45" s="116"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="116"/>
-      <c r="O45" s="116"/>
-      <c r="P45" s="116"/>
-      <c r="Q45" s="117"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="94"/>
+      <c r="O45" s="94"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="95"/>
     </row>
     <row r="46" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="51" t="s">
         <v>40</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
-      <c r="E46" s="82" t="s">
+      <c r="E46" s="51" t="s">
         <v>48</v>
       </c>
       <c r="F46" s="15" t="s">
@@ -2816,94 +2816,94 @@
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="16"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="118" t="s">
+      <c r="I46" s="133"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L46" s="118"/>
-      <c r="M46" s="118"/>
-      <c r="N46" s="118"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="118"/>
-      <c r="Q46" s="119"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="82"/>
     </row>
     <row r="47" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="83"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="83"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="18"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="120" t="s">
+      <c r="I47" s="133"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="L47" s="120"/>
-      <c r="M47" s="120"/>
-      <c r="N47" s="120"/>
-      <c r="O47" s="120"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="121"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="74"/>
     </row>
     <row r="48" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="83"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
-      <c r="E48" s="83"/>
+      <c r="E48" s="52"/>
       <c r="F48" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="18"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="113" t="s">
+      <c r="I48" s="133"/>
+      <c r="J48" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="K48" s="116" t="s">
+      <c r="K48" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="L48" s="116"/>
-      <c r="M48" s="116"/>
-      <c r="N48" s="116"/>
-      <c r="O48" s="116"/>
-      <c r="P48" s="116"/>
-      <c r="Q48" s="117"/>
+      <c r="L48" s="94"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="95"/>
     </row>
     <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="83"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="83"/>
+      <c r="E49" s="52"/>
       <c r="F49" s="17" t="s">
         <v>22</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="18"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="118" t="s">
+      <c r="I49" s="133"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L49" s="118"/>
-      <c r="M49" s="118"/>
-      <c r="N49" s="118"/>
-      <c r="O49" s="118"/>
-      <c r="P49" s="118"/>
-      <c r="Q49" s="119"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="81"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="81"/>
+      <c r="Q49" s="82"/>
       <c r="R49" s="17"/>
       <c r="S49" s="17"/>
       <c r="T49" s="17"/>
@@ -2912,7 +2912,7 @@
       <c r="W49" s="17"/>
     </row>
     <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="82" t="s">
+      <c r="A50" s="51" t="s">
         <v>41</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
-      <c r="E50" s="82" t="s">
+      <c r="E50" s="51" t="s">
         <v>49</v>
       </c>
       <c r="F50" s="15" t="s">
@@ -2928,98 +2928,98 @@
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="16"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="120" t="s">
+      <c r="I50" s="133"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="121"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="74"/>
       <c r="R50" s="41"/>
     </row>
     <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="83"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="83"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="18"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="114" t="s">
+      <c r="I51" s="133"/>
+      <c r="J51" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="K51" s="116" t="s">
+      <c r="K51" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="L51" s="116"/>
-      <c r="M51" s="116"/>
-      <c r="N51" s="116"/>
-      <c r="O51" s="116"/>
-      <c r="P51" s="116"/>
-      <c r="Q51" s="117"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="94"/>
+      <c r="Q51" s="95"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" s="83"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="83"/>
+      <c r="E52" s="52"/>
       <c r="F52" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="114"/>
-      <c r="K52" s="118" t="s">
+      <c r="I52" s="133"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="119"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="81"/>
+      <c r="P52" s="81"/>
+      <c r="Q52" s="82"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" s="83"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="18"/>
-      <c r="E53" s="83"/>
+      <c r="E53" s="52"/>
       <c r="F53" s="17" t="s">
         <v>22</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="18"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="114"/>
-      <c r="K53" s="120" t="s">
+      <c r="I53" s="133"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="L53" s="120"/>
-      <c r="M53" s="120"/>
-      <c r="N53" s="120"/>
-      <c r="O53" s="120"/>
-      <c r="P53" s="120"/>
-      <c r="Q53" s="121"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="74"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="51" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="15" t="s">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="16"/>
-      <c r="E54" s="82" t="s">
+      <c r="E54" s="51" t="s">
         <v>50</v>
       </c>
       <c r="F54" s="15" t="s">
@@ -3035,99 +3035,99 @@
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="16"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="113" t="s">
+      <c r="I54" s="133"/>
+      <c r="J54" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K54" s="116" t="s">
+      <c r="K54" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="L54" s="116"/>
-      <c r="M54" s="116"/>
-      <c r="N54" s="116"/>
-      <c r="O54" s="116"/>
-      <c r="P54" s="116"/>
-      <c r="Q54" s="117"/>
+      <c r="L54" s="94"/>
+      <c r="M54" s="94"/>
+      <c r="N54" s="94"/>
+      <c r="O54" s="94"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="95"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A55" s="83"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="18"/>
-      <c r="E55" s="83"/>
+      <c r="E55" s="52"/>
       <c r="F55" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="114"/>
-      <c r="K55" s="118" t="s">
+      <c r="I55" s="133"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L55" s="118"/>
-      <c r="M55" s="118"/>
-      <c r="N55" s="118"/>
-      <c r="O55" s="118"/>
-      <c r="P55" s="118"/>
-      <c r="Q55" s="119"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="81"/>
+      <c r="N55" s="81"/>
+      <c r="O55" s="81"/>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="82"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A56" s="83"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="18"/>
-      <c r="E56" s="83"/>
+      <c r="E56" s="52"/>
       <c r="F56" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="120" t="s">
+      <c r="I56" s="133"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="L56" s="120"/>
-      <c r="M56" s="120"/>
-      <c r="N56" s="120"/>
-      <c r="O56" s="120"/>
-      <c r="P56" s="120"/>
-      <c r="Q56" s="121"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="74"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A57" s="87"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="20"/>
-      <c r="E57" s="87"/>
+      <c r="E57" s="66"/>
       <c r="F57" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G57" s="19"/>
       <c r="H57" s="20"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="113" t="s">
+      <c r="I57" s="133"/>
+      <c r="J57" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="116" t="s">
+      <c r="K57" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="L57" s="116"/>
-      <c r="M57" s="116"/>
-      <c r="N57" s="116"/>
-      <c r="O57" s="116"/>
-      <c r="P57" s="116"/>
-      <c r="Q57" s="117"/>
+      <c r="L57" s="94"/>
+      <c r="M57" s="94"/>
+      <c r="N57" s="94"/>
+      <c r="O57" s="94"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="95"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="16"/>
-      <c r="E58" s="82" t="s">
+      <c r="E58" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F58" s="15" t="s">
@@ -3143,97 +3143,97 @@
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="16"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="118" t="s">
+      <c r="I58" s="133"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L58" s="118"/>
-      <c r="M58" s="118"/>
-      <c r="N58" s="118"/>
-      <c r="O58" s="118"/>
-      <c r="P58" s="118"/>
-      <c r="Q58" s="119"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="81"/>
+      <c r="N58" s="81"/>
+      <c r="O58" s="81"/>
+      <c r="P58" s="81"/>
+      <c r="Q58" s="82"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A59" s="83"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="18"/>
-      <c r="E59" s="83"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="18"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="115"/>
-      <c r="K59" s="120" t="s">
+      <c r="I59" s="133"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="L59" s="120"/>
-      <c r="M59" s="120"/>
-      <c r="N59" s="120"/>
-      <c r="O59" s="120"/>
-      <c r="P59" s="120"/>
-      <c r="Q59" s="121"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="74"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A60" s="83"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="18"/>
-      <c r="E60" s="83"/>
+      <c r="E60" s="52"/>
       <c r="F60" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="18"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="113" t="s">
+      <c r="I60" s="133"/>
+      <c r="J60" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K60" s="116" t="s">
+      <c r="K60" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="L60" s="116"/>
-      <c r="M60" s="116"/>
-      <c r="N60" s="116"/>
-      <c r="O60" s="116"/>
-      <c r="P60" s="116"/>
-      <c r="Q60" s="117"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="94"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="95"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A61" s="87"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="20"/>
-      <c r="E61" s="87"/>
+      <c r="E61" s="66"/>
       <c r="F61" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G61" s="19"/>
       <c r="H61" s="20"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="114"/>
-      <c r="K61" s="118" t="s">
+      <c r="I61" s="133"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L61" s="118"/>
-      <c r="M61" s="118"/>
-      <c r="N61" s="118"/>
-      <c r="O61" s="118"/>
-      <c r="P61" s="118"/>
-      <c r="Q61" s="119"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="81"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="82"/>
     </row>
     <row r="62" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="82" t="s">
+      <c r="A62" s="51" t="s">
         <v>44</v>
       </c>
       <c r="B62" s="15" t="s">
@@ -3241,163 +3241,163 @@
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="16"/>
-      <c r="E62" s="108"/>
+      <c r="E62" s="99"/>
       <c r="F62" s="44"/>
       <c r="G62" s="44"/>
       <c r="H62" s="45"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="114"/>
-      <c r="K62" s="118" t="s">
+      <c r="I62" s="133"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="L62" s="118"/>
-      <c r="M62" s="118"/>
-      <c r="N62" s="118"/>
-      <c r="O62" s="118"/>
-      <c r="P62" s="118"/>
-      <c r="Q62" s="119"/>
+      <c r="L62" s="81"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="81"/>
+      <c r="O62" s="81"/>
+      <c r="P62" s="81"/>
+      <c r="Q62" s="82"/>
     </row>
     <row r="63" spans="1:23" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="83"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="18"/>
-      <c r="E63" s="109"/>
+      <c r="E63" s="100"/>
       <c r="F63" s="46"/>
       <c r="G63" s="46"/>
       <c r="H63" s="47"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="122" t="s">
+      <c r="I63" s="133"/>
+      <c r="J63" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="K63" s="123" t="s">
+      <c r="K63" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="L63" s="123"/>
-      <c r="M63" s="123"/>
-      <c r="N63" s="123"/>
-      <c r="O63" s="123"/>
-      <c r="P63" s="123"/>
-      <c r="Q63" s="124"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="72"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A64" s="83"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="18"/>
-      <c r="E64" s="109"/>
+      <c r="E64" s="100"/>
       <c r="F64" s="46"/>
       <c r="G64" s="46"/>
       <c r="H64" s="47"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="114"/>
-      <c r="K64" s="118" t="s">
+      <c r="I64" s="133"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L64" s="118"/>
-      <c r="M64" s="118"/>
-      <c r="N64" s="118"/>
-      <c r="O64" s="118"/>
-      <c r="P64" s="118"/>
-      <c r="Q64" s="119"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="81"/>
+      <c r="P64" s="81"/>
+      <c r="Q64" s="82"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="87"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="20"/>
-      <c r="E65" s="110"/>
+      <c r="E65" s="101"/>
       <c r="F65" s="46"/>
       <c r="G65" s="46"/>
       <c r="H65" s="47"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="114"/>
-      <c r="K65" s="118" t="s">
+      <c r="I65" s="133"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="L65" s="118"/>
-      <c r="M65" s="118"/>
-      <c r="N65" s="118"/>
-      <c r="O65" s="118"/>
-      <c r="P65" s="118"/>
-      <c r="Q65" s="119"/>
+      <c r="L65" s="81"/>
+      <c r="M65" s="81"/>
+      <c r="N65" s="81"/>
+      <c r="O65" s="81"/>
+      <c r="P65" s="81"/>
+      <c r="Q65" s="82"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="96" t="s">
+      <c r="A66" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="125" t="s">
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="F66" s="126"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="127"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="115"/>
-      <c r="K66" s="120" t="s">
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="98"/>
+      <c r="I66" s="133"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="L66" s="120"/>
-      <c r="M66" s="120"/>
-      <c r="N66" s="120"/>
-      <c r="O66" s="120"/>
-      <c r="P66" s="120"/>
-      <c r="Q66" s="121"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="73"/>
+      <c r="N66" s="73"/>
+      <c r="O66" s="73"/>
+      <c r="P66" s="73"/>
+      <c r="Q66" s="74"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="96" t="s">
+      <c r="A67" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="97"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="98"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="128"/>
-      <c r="K67" s="128"/>
-      <c r="L67" s="128"/>
-      <c r="M67" s="128"/>
-      <c r="N67" s="128"/>
-      <c r="O67" s="128"/>
-      <c r="P67" s="128"/>
-      <c r="Q67" s="128"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="133"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="83"/>
+      <c r="N67" s="83"/>
+      <c r="O67" s="83"/>
+      <c r="P67" s="83"/>
+      <c r="Q67" s="83"/>
     </row>
     <row r="68" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="129" t="s">
+      <c r="A68" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="130"/>
-      <c r="C68" s="130"/>
-      <c r="D68" s="131"/>
-      <c r="E68" s="132" t="s">
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="F68" s="133"/>
-      <c r="G68" s="133"/>
-      <c r="H68" s="134"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="135" t="s">
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="133"/>
+      <c r="J68" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="K68" s="136"/>
-      <c r="L68" s="136"/>
-      <c r="M68" s="136"/>
-      <c r="N68" s="136"/>
-      <c r="O68" s="136"/>
-      <c r="P68" s="136"/>
-      <c r="Q68" s="137"/>
+      <c r="K68" s="91"/>
+      <c r="L68" s="91"/>
+      <c r="M68" s="91"/>
+      <c r="N68" s="91"/>
+      <c r="O68" s="91"/>
+      <c r="P68" s="91"/>
+      <c r="Q68" s="92"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
@@ -3424,22 +3424,22 @@
       <c r="H69" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="56"/>
-      <c r="J69" s="113" t="s">
+      <c r="I69" s="133"/>
+      <c r="J69" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="K69" s="138" t="s">
+      <c r="K69" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L69" s="138"/>
-      <c r="M69" s="138"/>
-      <c r="N69" s="138"/>
-      <c r="O69" s="138"/>
-      <c r="P69" s="138"/>
-      <c r="Q69" s="139"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="58"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="82" t="s">
+      <c r="A70" s="51" t="s">
         <v>52</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="16"/>
-      <c r="E70" s="82" t="s">
+      <c r="E70" s="51" t="s">
         <v>59</v>
       </c>
       <c r="F70" s="15" t="s">
@@ -3455,99 +3455,99 @@
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="16"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="115"/>
-      <c r="K70" s="140" t="s">
+      <c r="I70" s="133"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L70" s="140"/>
-      <c r="M70" s="140"/>
-      <c r="N70" s="140"/>
-      <c r="O70" s="140"/>
-      <c r="P70" s="140"/>
-      <c r="Q70" s="141"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="53"/>
+      <c r="P70" s="53"/>
+      <c r="Q70" s="54"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="83"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="18"/>
-      <c r="E71" s="83"/>
+      <c r="E71" s="52"/>
       <c r="F71" s="17" t="s">
         <v>61</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="18"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="114" t="s">
+      <c r="I71" s="133"/>
+      <c r="J71" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="K71" s="138" t="s">
+      <c r="K71" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L71" s="138"/>
-      <c r="M71" s="138"/>
-      <c r="N71" s="138"/>
-      <c r="O71" s="138"/>
-      <c r="P71" s="138"/>
-      <c r="Q71" s="139"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="57"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="57"/>
+      <c r="Q71" s="58"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="83"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="18"/>
-      <c r="E72" s="83"/>
+      <c r="E72" s="52"/>
       <c r="F72" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="18"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="114"/>
-      <c r="K72" s="140" t="s">
+      <c r="I72" s="133"/>
+      <c r="J72" s="93"/>
+      <c r="K72" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L72" s="140"/>
-      <c r="M72" s="140"/>
-      <c r="N72" s="140"/>
-      <c r="O72" s="140"/>
-      <c r="P72" s="140"/>
-      <c r="Q72" s="141"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="53"/>
+      <c r="O72" s="53"/>
+      <c r="P72" s="53"/>
+      <c r="Q72" s="54"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="87"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="87"/>
+      <c r="E73" s="66"/>
       <c r="F73" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G73" s="19"/>
       <c r="H73" s="20"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="113" t="s">
+      <c r="I73" s="133"/>
+      <c r="J73" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="K73" s="138" t="s">
+      <c r="K73" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L73" s="138"/>
-      <c r="M73" s="138"/>
-      <c r="N73" s="138"/>
-      <c r="O73" s="138"/>
-      <c r="P73" s="138"/>
-      <c r="Q73" s="139"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="57"/>
+      <c r="Q73" s="58"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="82" t="s">
+      <c r="A74" s="51" t="s">
         <v>53</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="16"/>
-      <c r="E74" s="82" t="s">
+      <c r="E74" s="51" t="s">
         <v>64</v>
       </c>
       <c r="F74" s="15" t="s">
@@ -3563,99 +3563,99 @@
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="16"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="115"/>
-      <c r="K74" s="140" t="s">
+      <c r="I74" s="133"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L74" s="140"/>
-      <c r="M74" s="140"/>
-      <c r="N74" s="140"/>
-      <c r="O74" s="140"/>
-      <c r="P74" s="140"/>
-      <c r="Q74" s="141"/>
+      <c r="L74" s="53"/>
+      <c r="M74" s="53"/>
+      <c r="N74" s="53"/>
+      <c r="O74" s="53"/>
+      <c r="P74" s="53"/>
+      <c r="Q74" s="54"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="83"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="18"/>
-      <c r="E75" s="83"/>
+      <c r="E75" s="52"/>
       <c r="F75" s="17" t="s">
         <v>61</v>
       </c>
       <c r="G75" s="17"/>
       <c r="H75" s="18"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="113" t="s">
+      <c r="I75" s="133"/>
+      <c r="J75" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K75" s="138" t="s">
+      <c r="K75" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L75" s="138"/>
-      <c r="M75" s="138"/>
-      <c r="N75" s="138"/>
-      <c r="O75" s="138"/>
-      <c r="P75" s="138"/>
-      <c r="Q75" s="139"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="57"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="58"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="83"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="18"/>
-      <c r="E76" s="83"/>
+      <c r="E76" s="52"/>
       <c r="F76" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="18"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="115"/>
-      <c r="K76" s="140" t="s">
+      <c r="I76" s="133"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L76" s="140"/>
-      <c r="M76" s="140"/>
-      <c r="N76" s="140"/>
-      <c r="O76" s="140"/>
-      <c r="P76" s="140"/>
-      <c r="Q76" s="141"/>
+      <c r="L76" s="53"/>
+      <c r="M76" s="53"/>
+      <c r="N76" s="53"/>
+      <c r="O76" s="53"/>
+      <c r="P76" s="53"/>
+      <c r="Q76" s="54"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="83"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="18"/>
-      <c r="E77" s="83"/>
+      <c r="E77" s="52"/>
       <c r="F77" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="18"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="113" t="s">
+      <c r="I77" s="133"/>
+      <c r="J77" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K77" s="138" t="s">
+      <c r="K77" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L77" s="138"/>
-      <c r="M77" s="138"/>
-      <c r="N77" s="138"/>
-      <c r="O77" s="138"/>
-      <c r="P77" s="138"/>
-      <c r="Q77" s="139"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="57"/>
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="57"/>
+      <c r="Q77" s="58"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="82" t="s">
+      <c r="A78" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B78" s="15" t="s">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="16"/>
-      <c r="E78" s="82" t="s">
+      <c r="E78" s="51" t="s">
         <v>65</v>
       </c>
       <c r="F78" s="15" t="s">
@@ -3671,99 +3671,99 @@
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="16"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="115"/>
-      <c r="K78" s="140" t="s">
+      <c r="I78" s="133"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L78" s="140"/>
-      <c r="M78" s="140"/>
-      <c r="N78" s="140"/>
-      <c r="O78" s="140"/>
-      <c r="P78" s="140"/>
-      <c r="Q78" s="141"/>
+      <c r="L78" s="53"/>
+      <c r="M78" s="53"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="53"/>
+      <c r="P78" s="53"/>
+      <c r="Q78" s="54"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="83"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="18"/>
-      <c r="E79" s="83"/>
+      <c r="E79" s="52"/>
       <c r="F79" s="17" t="s">
         <v>61</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="18"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="113" t="s">
+      <c r="I79" s="133"/>
+      <c r="J79" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="K79" s="138" t="s">
+      <c r="K79" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L79" s="138"/>
-      <c r="M79" s="138"/>
-      <c r="N79" s="138"/>
-      <c r="O79" s="138"/>
-      <c r="P79" s="138"/>
-      <c r="Q79" s="139"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="58"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="83"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="18"/>
-      <c r="E80" s="83"/>
+      <c r="E80" s="52"/>
       <c r="F80" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="18"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="115"/>
-      <c r="K80" s="140" t="s">
+      <c r="I80" s="133"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L80" s="140"/>
-      <c r="M80" s="140"/>
-      <c r="N80" s="140"/>
-      <c r="O80" s="140"/>
-      <c r="P80" s="140"/>
-      <c r="Q80" s="141"/>
+      <c r="L80" s="53"/>
+      <c r="M80" s="53"/>
+      <c r="N80" s="53"/>
+      <c r="O80" s="53"/>
+      <c r="P80" s="53"/>
+      <c r="Q80" s="54"/>
     </row>
     <row r="81" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="83"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="18"/>
-      <c r="E81" s="83"/>
+      <c r="E81" s="52"/>
       <c r="F81" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="18"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="113" t="s">
+      <c r="I81" s="133"/>
+      <c r="J81" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K81" s="138" t="s">
+      <c r="K81" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L81" s="138"/>
-      <c r="M81" s="138"/>
-      <c r="N81" s="138"/>
-      <c r="O81" s="138"/>
-      <c r="P81" s="138"/>
-      <c r="Q81" s="139"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="57"/>
+      <c r="N81" s="57"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="58"/>
     </row>
     <row r="82" spans="1:17" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="82" t="s">
+      <c r="A82" s="51" t="s">
         <v>55</v>
       </c>
       <c r="B82" s="15" t="s">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="16"/>
-      <c r="E82" s="82" t="s">
+      <c r="E82" s="51" t="s">
         <v>66</v>
       </c>
       <c r="F82" s="15" t="s">
@@ -3779,97 +3779,97 @@
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="16"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="142"/>
-      <c r="K82" s="140" t="s">
+      <c r="I82" s="133"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L82" s="140"/>
-      <c r="M82" s="140"/>
-      <c r="N82" s="140"/>
-      <c r="O82" s="140"/>
-      <c r="P82" s="140"/>
-      <c r="Q82" s="141"/>
+      <c r="L82" s="53"/>
+      <c r="M82" s="53"/>
+      <c r="N82" s="53"/>
+      <c r="O82" s="53"/>
+      <c r="P82" s="53"/>
+      <c r="Q82" s="54"/>
     </row>
     <row r="83" spans="1:17" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="83"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="18"/>
-      <c r="E83" s="83"/>
+      <c r="E83" s="52"/>
       <c r="F83" s="17" t="s">
         <v>61</v>
       </c>
       <c r="G83" s="17"/>
       <c r="H83" s="18"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="122" t="s">
+      <c r="I83" s="133"/>
+      <c r="J83" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="K83" s="123" t="s">
+      <c r="K83" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="L83" s="123"/>
-      <c r="M83" s="123"/>
-      <c r="N83" s="123"/>
-      <c r="O83" s="123"/>
-      <c r="P83" s="123"/>
-      <c r="Q83" s="124"/>
+      <c r="L83" s="71"/>
+      <c r="M83" s="71"/>
+      <c r="N83" s="71"/>
+      <c r="O83" s="71"/>
+      <c r="P83" s="71"/>
+      <c r="Q83" s="72"/>
     </row>
     <row r="84" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="83"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="18"/>
-      <c r="E84" s="83"/>
+      <c r="E84" s="52"/>
       <c r="F84" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="18"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="115"/>
-      <c r="K84" s="120" t="s">
+      <c r="I84" s="133"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="L84" s="120"/>
-      <c r="M84" s="120"/>
-      <c r="N84" s="120"/>
-      <c r="O84" s="120"/>
-      <c r="P84" s="120"/>
-      <c r="Q84" s="121"/>
+      <c r="L84" s="73"/>
+      <c r="M84" s="73"/>
+      <c r="N84" s="73"/>
+      <c r="O84" s="73"/>
+      <c r="P84" s="73"/>
+      <c r="Q84" s="74"/>
     </row>
     <row r="85" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="87"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="20"/>
-      <c r="E85" s="87"/>
+      <c r="E85" s="66"/>
       <c r="F85" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G85" s="19"/>
       <c r="H85" s="20"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="149" t="s">
+      <c r="I85" s="133"/>
+      <c r="J85" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="K85" s="150"/>
-      <c r="L85" s="150"/>
-      <c r="M85" s="150"/>
-      <c r="N85" s="150"/>
-      <c r="O85" s="150"/>
-      <c r="P85" s="150"/>
-      <c r="Q85" s="151"/>
+      <c r="K85" s="76"/>
+      <c r="L85" s="76"/>
+      <c r="M85" s="76"/>
+      <c r="N85" s="76"/>
+      <c r="O85" s="76"/>
+      <c r="P85" s="76"/>
+      <c r="Q85" s="77"/>
     </row>
     <row r="86" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="51" t="s">
         <v>56</v>
       </c>
       <c r="B86" s="15" t="s">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="16"/>
-      <c r="E86" s="82" t="s">
+      <c r="E86" s="51" t="s">
         <v>67</v>
       </c>
       <c r="F86" s="15" t="s">
@@ -3885,87 +3885,87 @@
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="16"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="152"/>
-      <c r="K86" s="153"/>
-      <c r="L86" s="153"/>
-      <c r="M86" s="153"/>
-      <c r="N86" s="153"/>
-      <c r="O86" s="153"/>
-      <c r="P86" s="153"/>
-      <c r="Q86" s="154"/>
+      <c r="I86" s="133"/>
+      <c r="J86" s="78"/>
+      <c r="K86" s="79"/>
+      <c r="L86" s="79"/>
+      <c r="M86" s="79"/>
+      <c r="N86" s="79"/>
+      <c r="O86" s="79"/>
+      <c r="P86" s="79"/>
+      <c r="Q86" s="80"/>
     </row>
     <row r="87" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="83"/>
+      <c r="A87" s="52"/>
       <c r="B87" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="18"/>
-      <c r="E87" s="83"/>
+      <c r="E87" s="52"/>
       <c r="F87" s="17" t="s">
         <v>61</v>
       </c>
       <c r="G87" s="17"/>
       <c r="H87" s="18"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="143"/>
-      <c r="K87" s="144"/>
-      <c r="L87" s="144"/>
-      <c r="M87" s="144"/>
-      <c r="N87" s="144"/>
-      <c r="O87" s="144"/>
-      <c r="P87" s="144"/>
-      <c r="Q87" s="145"/>
+      <c r="I87" s="133"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="61"/>
+      <c r="M87" s="61"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="61"/>
+      <c r="P87" s="61"/>
+      <c r="Q87" s="62"/>
     </row>
     <row r="88" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="83"/>
+      <c r="A88" s="52"/>
       <c r="B88" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="18"/>
-      <c r="E88" s="83"/>
+      <c r="E88" s="52"/>
       <c r="F88" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G88" s="17"/>
       <c r="H88" s="18"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="143"/>
-      <c r="K88" s="144"/>
-      <c r="L88" s="144"/>
-      <c r="M88" s="144"/>
-      <c r="N88" s="144"/>
-      <c r="O88" s="144"/>
-      <c r="P88" s="144"/>
-      <c r="Q88" s="145"/>
+      <c r="I88" s="133"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="61"/>
+      <c r="M88" s="61"/>
+      <c r="N88" s="61"/>
+      <c r="O88" s="61"/>
+      <c r="P88" s="61"/>
+      <c r="Q88" s="62"/>
     </row>
     <row r="89" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="87"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C89" s="19"/>
       <c r="D89" s="20"/>
-      <c r="E89" s="87"/>
+      <c r="E89" s="66"/>
       <c r="F89" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G89" s="19"/>
       <c r="H89" s="20"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="143"/>
-      <c r="K89" s="144"/>
-      <c r="L89" s="144"/>
-      <c r="M89" s="144"/>
-      <c r="N89" s="144"/>
-      <c r="O89" s="144"/>
-      <c r="P89" s="144"/>
-      <c r="Q89" s="145"/>
+      <c r="I89" s="133"/>
+      <c r="J89" s="60"/>
+      <c r="K89" s="61"/>
+      <c r="L89" s="61"/>
+      <c r="M89" s="61"/>
+      <c r="N89" s="61"/>
+      <c r="O89" s="61"/>
+      <c r="P89" s="61"/>
+      <c r="Q89" s="62"/>
     </row>
     <row r="90" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="82" t="s">
+      <c r="A90" s="51" t="s">
         <v>57</v>
       </c>
       <c r="B90" s="15" t="s">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="16"/>
-      <c r="E90" s="82" t="s">
+      <c r="E90" s="51" t="s">
         <v>68</v>
       </c>
       <c r="F90" s="15" t="s">
@@ -3981,156 +3981,228 @@
       </c>
       <c r="G90" s="15"/>
       <c r="H90" s="16"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="143"/>
-      <c r="K90" s="144"/>
-      <c r="L90" s="144"/>
-      <c r="M90" s="144"/>
-      <c r="N90" s="144"/>
-      <c r="O90" s="144"/>
-      <c r="P90" s="144"/>
-      <c r="Q90" s="145"/>
+      <c r="I90" s="133"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="61"/>
+      <c r="P90" s="61"/>
+      <c r="Q90" s="62"/>
     </row>
     <row r="91" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="83"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="18"/>
-      <c r="E91" s="83"/>
+      <c r="E91" s="52"/>
       <c r="F91" s="17" t="s">
         <v>61</v>
       </c>
       <c r="G91" s="17"/>
       <c r="H91" s="18"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="143"/>
-      <c r="K91" s="144"/>
-      <c r="L91" s="144"/>
-      <c r="M91" s="144"/>
-      <c r="N91" s="144"/>
-      <c r="O91" s="144"/>
-      <c r="P91" s="144"/>
-      <c r="Q91" s="145"/>
+      <c r="I91" s="133"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="61"/>
+      <c r="L91" s="61"/>
+      <c r="M91" s="61"/>
+      <c r="N91" s="61"/>
+      <c r="O91" s="61"/>
+      <c r="P91" s="61"/>
+      <c r="Q91" s="62"/>
     </row>
     <row r="92" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="83"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="18"/>
-      <c r="E92" s="83"/>
+      <c r="E92" s="52"/>
       <c r="F92" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G92" s="17"/>
       <c r="H92" s="18"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="143"/>
-      <c r="K92" s="144"/>
-      <c r="L92" s="144"/>
-      <c r="M92" s="144"/>
-      <c r="N92" s="144"/>
-      <c r="O92" s="144"/>
-      <c r="P92" s="144"/>
-      <c r="Q92" s="145"/>
+      <c r="I92" s="133"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="61"/>
+      <c r="L92" s="61"/>
+      <c r="M92" s="61"/>
+      <c r="N92" s="61"/>
+      <c r="O92" s="61"/>
+      <c r="P92" s="61"/>
+      <c r="Q92" s="62"/>
     </row>
     <row r="93" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="87"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="20"/>
-      <c r="E93" s="87"/>
+      <c r="E93" s="66"/>
       <c r="F93" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G93" s="19"/>
       <c r="H93" s="20"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="143"/>
-      <c r="K93" s="144"/>
-      <c r="L93" s="144"/>
-      <c r="M93" s="144"/>
-      <c r="N93" s="144"/>
-      <c r="O93" s="144"/>
-      <c r="P93" s="144"/>
-      <c r="Q93" s="145"/>
+      <c r="I93" s="133"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="61"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="61"/>
+      <c r="N93" s="61"/>
+      <c r="O93" s="61"/>
+      <c r="P93" s="61"/>
+      <c r="Q93" s="62"/>
     </row>
     <row r="94" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="96" t="s">
+      <c r="A94" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="97"/>
-      <c r="C94" s="97"/>
-      <c r="D94" s="98"/>
-      <c r="E94" s="97" t="s">
+      <c r="B94" s="68"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="F94" s="97"/>
-      <c r="G94" s="97"/>
-      <c r="H94" s="98"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="143"/>
-      <c r="K94" s="144"/>
-      <c r="L94" s="144"/>
-      <c r="M94" s="144"/>
-      <c r="N94" s="144"/>
-      <c r="O94" s="144"/>
-      <c r="P94" s="144"/>
-      <c r="Q94" s="145"/>
+      <c r="F94" s="68"/>
+      <c r="G94" s="68"/>
+      <c r="H94" s="69"/>
+      <c r="I94" s="133"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="61"/>
+      <c r="L94" s="61"/>
+      <c r="M94" s="61"/>
+      <c r="N94" s="61"/>
+      <c r="O94" s="61"/>
+      <c r="P94" s="61"/>
+      <c r="Q94" s="62"/>
     </row>
     <row r="95" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="96" t="s">
+      <c r="A95" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B95" s="97"/>
-      <c r="C95" s="97"/>
-      <c r="D95" s="97"/>
-      <c r="E95" s="97"/>
-      <c r="F95" s="97"/>
-      <c r="G95" s="97"/>
-      <c r="H95" s="98"/>
-      <c r="I95" s="56"/>
-      <c r="J95" s="146"/>
-      <c r="K95" s="147"/>
-      <c r="L95" s="147"/>
-      <c r="M95" s="147"/>
-      <c r="N95" s="147"/>
-      <c r="O95" s="147"/>
-      <c r="P95" s="147"/>
-      <c r="Q95" s="148"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="68"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="133"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="64"/>
+      <c r="L95" s="64"/>
+      <c r="M95" s="64"/>
+      <c r="N95" s="64"/>
+      <c r="O95" s="64"/>
+      <c r="P95" s="64"/>
+      <c r="Q95" s="65"/>
     </row>
     <row r="96" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="142">
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="K78:Q78"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:Q79"/>
-    <mergeCell ref="K80:Q80"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="J87:Q95"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="A95:H95"/>
-    <mergeCell ref="K81:Q81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:Q83"/>
-    <mergeCell ref="K84:Q84"/>
-    <mergeCell ref="J85:Q86"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:I95"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="J3:Q13"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="J36:Q38"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="E62:E65"/>
     <mergeCell ref="K62:Q62"/>
     <mergeCell ref="A67:H67"/>
     <mergeCell ref="J67:Q67"/>
@@ -4155,101 +4227,29 @@
     <mergeCell ref="K76:Q76"/>
     <mergeCell ref="J77:J78"/>
     <mergeCell ref="K77:Q77"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="K63:Q63"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="K60:Q60"/>
-    <mergeCell ref="K61:Q61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="K49:Q49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="J36:Q38"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:I95"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="J3:Q13"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="J87:Q95"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="A95:H95"/>
+    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="J85:Q86"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="E86:E89"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4281,50 +4281,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="128" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
     </row>
     <row r="2" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
     </row>
     <row r="3" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
@@ -4351,17 +4351,17 @@
       <c r="H3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="58" t="s">
+      <c r="I3" s="133"/>
+      <c r="J3" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="137"/>
     </row>
     <row r="4" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -4374,15 +4374,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="63"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="140"/>
     </row>
     <row r="5" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -4395,34 +4395,34 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="140"/>
     </row>
     <row r="6" spans="1:17" ht="6.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="63"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="140"/>
     </row>
     <row r="7" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -4435,206 +4435,206 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="63"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="140"/>
     </row>
     <row r="8" spans="1:17" ht="6.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="63"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="140"/>
     </row>
     <row r="9" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="80" t="s">
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="63"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="140"/>
     </row>
     <row r="10" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="74" t="s">
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="63"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="140"/>
     </row>
     <row r="11" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="74" t="s">
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="63"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="140"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="74" t="s">
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="63"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="139"/>
+      <c r="O12" s="139"/>
+      <c r="P12" s="139"/>
+      <c r="Q12" s="140"/>
     </row>
     <row r="13" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74" t="s">
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="66"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="142"/>
+      <c r="O13" s="142"/>
+      <c r="P13" s="142"/>
+      <c r="Q13" s="143"/>
     </row>
     <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
     </row>
     <row r="15" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="79" t="s">
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
     </row>
     <row r="16" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93" t="s">
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="56"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="133"/>
       <c r="J16" s="29" t="s">
         <v>76</v>
       </c>
@@ -4685,20 +4685,20 @@
       <c r="H17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="75" t="s">
+      <c r="I17" s="133"/>
+      <c r="J17" s="127" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="116" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="56"/>
+      <c r="I18" s="133"/>
       <c r="J18" s="39" t="s">
         <v>88</v>
       </c>
@@ -4727,19 +4727,19 @@
       <c r="Q18" s="35"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="85"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="56"/>
+      <c r="I19" s="133"/>
       <c r="J19" s="17" t="s">
         <v>89</v>
       </c>
@@ -4752,19 +4752,19 @@
       <c r="Q19" s="30"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="85"/>
+      <c r="E20" s="117"/>
       <c r="F20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="56"/>
+      <c r="I20" s="133"/>
       <c r="J20" s="17" t="s">
         <v>78</v>
       </c>
@@ -4777,19 +4777,19 @@
       <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="88"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="56"/>
+      <c r="I21" s="133"/>
       <c r="J21" s="19" t="s">
         <v>79</v>
       </c>
@@ -4802,7 +4802,7 @@
       <c r="Q21" s="40"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="51" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="116" t="s">
         <v>117</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -4818,32 +4818,32 @@
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="86" t="s">
+      <c r="I22" s="133"/>
+      <c r="J22" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="85"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="56"/>
+      <c r="I23" s="133"/>
       <c r="J23" s="15" t="s">
         <v>80</v>
       </c>
@@ -4856,19 +4856,19 @@
       <c r="Q23" s="35"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="85"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="56"/>
+      <c r="I24" s="133"/>
       <c r="J24" s="26" t="s">
         <v>81</v>
       </c>
@@ -4881,19 +4881,19 @@
       <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="88"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="56"/>
+      <c r="I25" s="133"/>
       <c r="J25" s="17" t="s">
         <v>82</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="Q25" s="32"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="116" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="8" t="s">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="56"/>
+      <c r="I26" s="133"/>
       <c r="J26" s="19" t="s">
         <v>84</v>
       </c>
@@ -4935,44 +4935,44 @@
       <c r="Q26" s="33"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="85"/>
+      <c r="E27" s="117"/>
       <c r="F27" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="86" t="s">
+      <c r="I27" s="133"/>
+      <c r="J27" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="85"/>
+      <c r="E28" s="117"/>
       <c r="F28" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="56"/>
+      <c r="I28" s="133"/>
       <c r="J28" s="15" t="s">
         <v>90</v>
       </c>
@@ -4985,19 +4985,19 @@
       <c r="Q28" s="35"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="85"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="56"/>
+      <c r="I29" s="133"/>
       <c r="J29" s="17" t="s">
         <v>91</v>
       </c>
@@ -5010,7 +5010,7 @@
       <c r="Q29" s="32"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="51" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="84" t="s">
+      <c r="E30" s="116" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="56"/>
+      <c r="I30" s="133"/>
       <c r="J30" s="38" t="s">
         <v>92</v>
       </c>
@@ -5039,44 +5039,44 @@
       <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="85"/>
+      <c r="E31" s="117"/>
       <c r="F31" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="12"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="89" t="s">
+      <c r="I31" s="133"/>
+      <c r="J31" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="120"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="85"/>
+      <c r="E32" s="117"/>
       <c r="F32" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="12"/>
-      <c r="I32" s="56"/>
+      <c r="I32" s="133"/>
       <c r="J32" s="15" t="s">
         <v>93</v>
       </c>
@@ -5089,19 +5089,19 @@
       <c r="Q32" s="34"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="87"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="88"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="56"/>
+      <c r="I33" s="133"/>
       <c r="J33" s="50" t="s">
         <v>96</v>
       </c>
@@ -5114,7 +5114,7 @@
       <c r="Q33" s="32"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="51" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -5122,150 +5122,150 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="108"/>
+      <c r="E34" s="99"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="111" t="s">
+      <c r="I34" s="133"/>
+      <c r="J34" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="111"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
     </row>
     <row r="35" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="109"/>
+      <c r="E35" s="100"/>
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
       <c r="H35" s="43"/>
-      <c r="I35" s="56"/>
+      <c r="I35" s="133"/>
       <c r="J35" s="49" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="83"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="109"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
       <c r="H36" s="43"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="112" t="s">
+      <c r="I36" s="133"/>
+      <c r="J36" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="K36" s="112"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="115"/>
+      <c r="O36" s="115"/>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="115"/>
     </row>
     <row r="37" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="87"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="110"/>
+      <c r="E37" s="101"/>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
       <c r="H37" s="43"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="112"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="115"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="115"/>
+      <c r="P37" s="115"/>
+      <c r="Q37" s="115"/>
     </row>
     <row r="38" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="96" t="s">
+      <c r="A38" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="96" t="s">
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="112"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="112"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="115"/>
+      <c r="O38" s="115"/>
+      <c r="P38" s="115"/>
+      <c r="Q38" s="115"/>
     </row>
     <row r="39" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="99"/>
-      <c r="P39" s="99"/>
-      <c r="Q39" s="99"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="102"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
     </row>
     <row r="40" spans="1:17" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="100" t="s">
+      <c r="A40" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="103" t="s">
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="76" t="s">
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="78"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="110"/>
+      <c r="P40" s="110"/>
+      <c r="Q40" s="111"/>
     </row>
     <row r="41" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
@@ -5292,22 +5292,22 @@
       <c r="H41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="56"/>
+      <c r="I41" s="133"/>
       <c r="J41" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="K41" s="106" t="s">
+      <c r="K41" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="L41" s="106"/>
-      <c r="M41" s="106"/>
-      <c r="N41" s="106"/>
-      <c r="O41" s="106"/>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="107"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="113"/>
     </row>
     <row r="42" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="51" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="82" t="s">
+      <c r="E42" s="51" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="8" t="s">
@@ -5323,99 +5323,99 @@
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="113" t="s">
+      <c r="I42" s="133"/>
+      <c r="J42" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="116" t="s">
+      <c r="K42" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="117"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="95"/>
     </row>
     <row r="43" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="83"/>
+      <c r="E43" s="52"/>
       <c r="F43" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="12"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="118" t="s">
+      <c r="I43" s="133"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L43" s="118"/>
-      <c r="M43" s="118"/>
-      <c r="N43" s="118"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="119"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
+      <c r="Q43" s="82"/>
     </row>
     <row r="44" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="83"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="12"/>
-      <c r="E44" s="83"/>
+      <c r="E44" s="52"/>
       <c r="F44" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="12"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="120" t="s">
+      <c r="I44" s="133"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="L44" s="120"/>
-      <c r="M44" s="120"/>
-      <c r="N44" s="120"/>
-      <c r="O44" s="120"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="121"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="74"/>
     </row>
     <row r="45" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="87"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="13"/>
-      <c r="E45" s="87"/>
+      <c r="E45" s="66"/>
       <c r="F45" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="13"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="113" t="s">
+      <c r="I45" s="133"/>
+      <c r="J45" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="K45" s="116" t="s">
+      <c r="K45" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="L45" s="116"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="116"/>
-      <c r="O45" s="116"/>
-      <c r="P45" s="116"/>
-      <c r="Q45" s="117"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="94"/>
+      <c r="O45" s="94"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="95"/>
     </row>
     <row r="46" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="51" t="s">
         <v>40</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="82" t="s">
+      <c r="E46" s="51" t="s">
         <v>48</v>
       </c>
       <c r="F46" s="8" t="s">
@@ -5431,94 +5431,94 @@
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="11"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="118" t="s">
+      <c r="I46" s="133"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L46" s="118"/>
-      <c r="M46" s="118"/>
-      <c r="N46" s="118"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="118"/>
-      <c r="Q46" s="119"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="82"/>
     </row>
     <row r="47" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="83"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="12"/>
-      <c r="E47" s="83"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="120" t="s">
+      <c r="I47" s="133"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="L47" s="120"/>
-      <c r="M47" s="120"/>
-      <c r="N47" s="120"/>
-      <c r="O47" s="120"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="121"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="74"/>
     </row>
     <row r="48" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="83"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="12"/>
-      <c r="E48" s="83"/>
+      <c r="E48" s="52"/>
       <c r="F48" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="113" t="s">
+      <c r="I48" s="133"/>
+      <c r="J48" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="K48" s="116" t="s">
+      <c r="K48" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="L48" s="116"/>
-      <c r="M48" s="116"/>
-      <c r="N48" s="116"/>
-      <c r="O48" s="116"/>
-      <c r="P48" s="116"/>
-      <c r="Q48" s="117"/>
+      <c r="L48" s="94"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="95"/>
     </row>
     <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="83"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="83"/>
+      <c r="E49" s="52"/>
       <c r="F49" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="12"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="118" t="s">
+      <c r="I49" s="133"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L49" s="118"/>
-      <c r="M49" s="118"/>
-      <c r="N49" s="118"/>
-      <c r="O49" s="118"/>
-      <c r="P49" s="118"/>
-      <c r="Q49" s="119"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="81"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="81"/>
+      <c r="Q49" s="82"/>
       <c r="R49" s="17"/>
       <c r="S49" s="17"/>
       <c r="T49" s="17"/>
@@ -5527,7 +5527,7 @@
       <c r="W49" s="17"/>
     </row>
     <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="82" t="s">
+      <c r="A50" s="51" t="s">
         <v>41</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="82" t="s">
+      <c r="E50" s="51" t="s">
         <v>49</v>
       </c>
       <c r="F50" s="8" t="s">
@@ -5543,98 +5543,98 @@
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="11"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="120" t="s">
+      <c r="I50" s="133"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="121"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="74"/>
       <c r="R50" s="41"/>
     </row>
     <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="83"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="83"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="114" t="s">
+      <c r="I51" s="133"/>
+      <c r="J51" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="K51" s="116" t="s">
+      <c r="K51" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="L51" s="116"/>
-      <c r="M51" s="116"/>
-      <c r="N51" s="116"/>
-      <c r="O51" s="116"/>
-      <c r="P51" s="116"/>
-      <c r="Q51" s="117"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="94"/>
+      <c r="Q51" s="95"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" s="83"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="83"/>
+      <c r="E52" s="52"/>
       <c r="F52" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="12"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="114"/>
-      <c r="K52" s="118" t="s">
+      <c r="I52" s="133"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="119"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="81"/>
+      <c r="P52" s="81"/>
+      <c r="Q52" s="82"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" s="83"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="83"/>
+      <c r="E53" s="52"/>
       <c r="F53" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="12"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="114"/>
-      <c r="K53" s="120" t="s">
+      <c r="I53" s="133"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="L53" s="120"/>
-      <c r="M53" s="120"/>
-      <c r="N53" s="120"/>
-      <c r="O53" s="120"/>
-      <c r="P53" s="120"/>
-      <c r="Q53" s="121"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="74"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="51" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="82" t="s">
+      <c r="E54" s="51" t="s">
         <v>50</v>
       </c>
       <c r="F54" s="8" t="s">
@@ -5650,99 +5650,99 @@
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="11"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="113" t="s">
+      <c r="I54" s="133"/>
+      <c r="J54" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="K54" s="116" t="s">
+      <c r="K54" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="L54" s="116"/>
-      <c r="M54" s="116"/>
-      <c r="N54" s="116"/>
-      <c r="O54" s="116"/>
-      <c r="P54" s="116"/>
-      <c r="Q54" s="117"/>
+      <c r="L54" s="94"/>
+      <c r="M54" s="94"/>
+      <c r="N54" s="94"/>
+      <c r="O54" s="94"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="95"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A55" s="83"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="12"/>
-      <c r="E55" s="83"/>
+      <c r="E55" s="52"/>
       <c r="F55" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="114"/>
-      <c r="K55" s="118" t="s">
+      <c r="I55" s="133"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L55" s="118"/>
-      <c r="M55" s="118"/>
-      <c r="N55" s="118"/>
-      <c r="O55" s="118"/>
-      <c r="P55" s="118"/>
-      <c r="Q55" s="119"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="81"/>
+      <c r="N55" s="81"/>
+      <c r="O55" s="81"/>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="82"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A56" s="83"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="83"/>
+      <c r="E56" s="52"/>
       <c r="F56" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="120" t="s">
+      <c r="I56" s="133"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="L56" s="120"/>
-      <c r="M56" s="120"/>
-      <c r="N56" s="120"/>
-      <c r="O56" s="120"/>
-      <c r="P56" s="120"/>
-      <c r="Q56" s="121"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="74"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A57" s="87"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="87"/>
+      <c r="E57" s="66"/>
       <c r="F57" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="13"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="113" t="s">
+      <c r="I57" s="133"/>
+      <c r="J57" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="K57" s="116" t="s">
+      <c r="K57" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="L57" s="116"/>
-      <c r="M57" s="116"/>
-      <c r="N57" s="116"/>
-      <c r="O57" s="116"/>
-      <c r="P57" s="116"/>
-      <c r="Q57" s="117"/>
+      <c r="L57" s="94"/>
+      <c r="M57" s="94"/>
+      <c r="N57" s="94"/>
+      <c r="O57" s="94"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="95"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="11"/>
-      <c r="E58" s="82" t="s">
+      <c r="E58" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F58" s="8" t="s">
@@ -5758,97 +5758,97 @@
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="11"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="118" t="s">
+      <c r="I58" s="133"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L58" s="118"/>
-      <c r="M58" s="118"/>
-      <c r="N58" s="118"/>
-      <c r="O58" s="118"/>
-      <c r="P58" s="118"/>
-      <c r="Q58" s="119"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="81"/>
+      <c r="N58" s="81"/>
+      <c r="O58" s="81"/>
+      <c r="P58" s="81"/>
+      <c r="Q58" s="82"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A59" s="83"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="83"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="115"/>
-      <c r="K59" s="120" t="s">
+      <c r="I59" s="133"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="L59" s="120"/>
-      <c r="M59" s="120"/>
-      <c r="N59" s="120"/>
-      <c r="O59" s="120"/>
-      <c r="P59" s="120"/>
-      <c r="Q59" s="121"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="74"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A60" s="83"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="12"/>
-      <c r="E60" s="83"/>
+      <c r="E60" s="52"/>
       <c r="F60" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="12"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="113" t="s">
+      <c r="I60" s="133"/>
+      <c r="J60" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="K60" s="116" t="s">
+      <c r="K60" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="L60" s="116"/>
-      <c r="M60" s="116"/>
-      <c r="N60" s="116"/>
-      <c r="O60" s="116"/>
-      <c r="P60" s="116"/>
-      <c r="Q60" s="117"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="94"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="95"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A61" s="87"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="13"/>
-      <c r="E61" s="87"/>
+      <c r="E61" s="66"/>
       <c r="F61" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="13"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="114"/>
-      <c r="K61" s="118" t="s">
+      <c r="I61" s="133"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L61" s="118"/>
-      <c r="M61" s="118"/>
-      <c r="N61" s="118"/>
-      <c r="O61" s="118"/>
-      <c r="P61" s="118"/>
-      <c r="Q61" s="119"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="81"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="82"/>
     </row>
     <row r="62" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="82" t="s">
+      <c r="A62" s="51" t="s">
         <v>44</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -5856,163 +5856,163 @@
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="108"/>
+      <c r="E62" s="99"/>
       <c r="F62" s="44"/>
       <c r="G62" s="44"/>
       <c r="H62" s="45"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="114"/>
-      <c r="K62" s="118" t="s">
+      <c r="I62" s="133"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="L62" s="118"/>
-      <c r="M62" s="118"/>
-      <c r="N62" s="118"/>
-      <c r="O62" s="118"/>
-      <c r="P62" s="118"/>
-      <c r="Q62" s="119"/>
+      <c r="L62" s="81"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="81"/>
+      <c r="O62" s="81"/>
+      <c r="P62" s="81"/>
+      <c r="Q62" s="82"/>
     </row>
     <row r="63" spans="1:23" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="83"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="12"/>
-      <c r="E63" s="109"/>
+      <c r="E63" s="100"/>
       <c r="F63" s="46"/>
       <c r="G63" s="46"/>
       <c r="H63" s="47"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="122" t="s">
+      <c r="I63" s="133"/>
+      <c r="J63" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="K63" s="123" t="s">
+      <c r="K63" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="L63" s="123"/>
-      <c r="M63" s="123"/>
-      <c r="N63" s="123"/>
-      <c r="O63" s="123"/>
-      <c r="P63" s="123"/>
-      <c r="Q63" s="124"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="72"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A64" s="83"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="12"/>
-      <c r="E64" s="109"/>
+      <c r="E64" s="100"/>
       <c r="F64" s="46"/>
       <c r="G64" s="46"/>
       <c r="H64" s="47"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="114"/>
-      <c r="K64" s="118" t="s">
+      <c r="I64" s="133"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L64" s="118"/>
-      <c r="M64" s="118"/>
-      <c r="N64" s="118"/>
-      <c r="O64" s="118"/>
-      <c r="P64" s="118"/>
-      <c r="Q64" s="119"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="81"/>
+      <c r="P64" s="81"/>
+      <c r="Q64" s="82"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="87"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="13"/>
-      <c r="E65" s="110"/>
+      <c r="E65" s="101"/>
       <c r="F65" s="46"/>
       <c r="G65" s="46"/>
       <c r="H65" s="47"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="114"/>
-      <c r="K65" s="118" t="s">
+      <c r="I65" s="133"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="L65" s="118"/>
-      <c r="M65" s="118"/>
-      <c r="N65" s="118"/>
-      <c r="O65" s="118"/>
-      <c r="P65" s="118"/>
-      <c r="Q65" s="119"/>
+      <c r="L65" s="81"/>
+      <c r="M65" s="81"/>
+      <c r="N65" s="81"/>
+      <c r="O65" s="81"/>
+      <c r="P65" s="81"/>
+      <c r="Q65" s="82"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="96" t="s">
+      <c r="A66" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="125" t="s">
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="F66" s="126"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="127"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="115"/>
-      <c r="K66" s="120" t="s">
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="98"/>
+      <c r="I66" s="133"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="L66" s="120"/>
-      <c r="M66" s="120"/>
-      <c r="N66" s="120"/>
-      <c r="O66" s="120"/>
-      <c r="P66" s="120"/>
-      <c r="Q66" s="121"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="73"/>
+      <c r="N66" s="73"/>
+      <c r="O66" s="73"/>
+      <c r="P66" s="73"/>
+      <c r="Q66" s="74"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="96" t="s">
+      <c r="A67" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="97"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="98"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="128"/>
-      <c r="K67" s="128"/>
-      <c r="L67" s="128"/>
-      <c r="M67" s="128"/>
-      <c r="N67" s="128"/>
-      <c r="O67" s="128"/>
-      <c r="P67" s="128"/>
-      <c r="Q67" s="128"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="133"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="83"/>
+      <c r="N67" s="83"/>
+      <c r="O67" s="83"/>
+      <c r="P67" s="83"/>
+      <c r="Q67" s="83"/>
     </row>
     <row r="68" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="129" t="s">
+      <c r="A68" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="130"/>
-      <c r="C68" s="130"/>
-      <c r="D68" s="131"/>
-      <c r="E68" s="132" t="s">
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="F68" s="133"/>
-      <c r="G68" s="133"/>
-      <c r="H68" s="134"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="135" t="s">
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="133"/>
+      <c r="J68" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="K68" s="136"/>
-      <c r="L68" s="136"/>
-      <c r="M68" s="136"/>
-      <c r="N68" s="136"/>
-      <c r="O68" s="136"/>
-      <c r="P68" s="136"/>
-      <c r="Q68" s="137"/>
+      <c r="K68" s="91"/>
+      <c r="L68" s="91"/>
+      <c r="M68" s="91"/>
+      <c r="N68" s="91"/>
+      <c r="O68" s="91"/>
+      <c r="P68" s="91"/>
+      <c r="Q68" s="92"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
@@ -6039,22 +6039,22 @@
       <c r="H69" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="56"/>
-      <c r="J69" s="113" t="s">
+      <c r="I69" s="133"/>
+      <c r="J69" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="K69" s="138" t="s">
+      <c r="K69" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L69" s="138"/>
-      <c r="M69" s="138"/>
-      <c r="N69" s="138"/>
-      <c r="O69" s="138"/>
-      <c r="P69" s="138"/>
-      <c r="Q69" s="139"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="58"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="82" t="s">
+      <c r="A70" s="51" t="s">
         <v>52</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="11"/>
-      <c r="E70" s="82" t="s">
+      <c r="E70" s="51" t="s">
         <v>59</v>
       </c>
       <c r="F70" s="8" t="s">
@@ -6070,99 +6070,99 @@
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="11"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="115"/>
-      <c r="K70" s="140" t="s">
+      <c r="I70" s="133"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L70" s="140"/>
-      <c r="M70" s="140"/>
-      <c r="N70" s="140"/>
-      <c r="O70" s="140"/>
-      <c r="P70" s="140"/>
-      <c r="Q70" s="141"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="53"/>
+      <c r="P70" s="53"/>
+      <c r="Q70" s="54"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="83"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="12"/>
-      <c r="E71" s="83"/>
+      <c r="E71" s="52"/>
       <c r="F71" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="12"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="114" t="s">
+      <c r="I71" s="133"/>
+      <c r="J71" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="K71" s="138" t="s">
+      <c r="K71" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L71" s="138"/>
-      <c r="M71" s="138"/>
-      <c r="N71" s="138"/>
-      <c r="O71" s="138"/>
-      <c r="P71" s="138"/>
-      <c r="Q71" s="139"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="57"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="57"/>
+      <c r="Q71" s="58"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="83"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="12"/>
-      <c r="E72" s="83"/>
+      <c r="E72" s="52"/>
       <c r="F72" s="9" t="s">
         <v>62</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="12"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="114"/>
-      <c r="K72" s="140" t="s">
+      <c r="I72" s="133"/>
+      <c r="J72" s="93"/>
+      <c r="K72" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L72" s="140"/>
-      <c r="M72" s="140"/>
-      <c r="N72" s="140"/>
-      <c r="O72" s="140"/>
-      <c r="P72" s="140"/>
-      <c r="Q72" s="141"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="53"/>
+      <c r="O72" s="53"/>
+      <c r="P72" s="53"/>
+      <c r="Q72" s="54"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="87"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="13"/>
-      <c r="E73" s="87"/>
+      <c r="E73" s="66"/>
       <c r="F73" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="13"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="113" t="s">
+      <c r="I73" s="133"/>
+      <c r="J73" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="K73" s="138" t="s">
+      <c r="K73" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L73" s="138"/>
-      <c r="M73" s="138"/>
-      <c r="N73" s="138"/>
-      <c r="O73" s="138"/>
-      <c r="P73" s="138"/>
-      <c r="Q73" s="139"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="57"/>
+      <c r="Q73" s="58"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="82" t="s">
+      <c r="A74" s="51" t="s">
         <v>53</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="11"/>
-      <c r="E74" s="82" t="s">
+      <c r="E74" s="51" t="s">
         <v>64</v>
       </c>
       <c r="F74" s="8" t="s">
@@ -6178,99 +6178,99 @@
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="11"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="115"/>
-      <c r="K74" s="140" t="s">
+      <c r="I74" s="133"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L74" s="140"/>
-      <c r="M74" s="140"/>
-      <c r="N74" s="140"/>
-      <c r="O74" s="140"/>
-      <c r="P74" s="140"/>
-      <c r="Q74" s="141"/>
+      <c r="L74" s="53"/>
+      <c r="M74" s="53"/>
+      <c r="N74" s="53"/>
+      <c r="O74" s="53"/>
+      <c r="P74" s="53"/>
+      <c r="Q74" s="54"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="83"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="12"/>
-      <c r="E75" s="83"/>
+      <c r="E75" s="52"/>
       <c r="F75" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="12"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="113" t="s">
+      <c r="I75" s="133"/>
+      <c r="J75" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="K75" s="138" t="s">
+      <c r="K75" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L75" s="138"/>
-      <c r="M75" s="138"/>
-      <c r="N75" s="138"/>
-      <c r="O75" s="138"/>
-      <c r="P75" s="138"/>
-      <c r="Q75" s="139"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="57"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="58"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="83"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="12"/>
-      <c r="E76" s="83"/>
+      <c r="E76" s="52"/>
       <c r="F76" s="9" t="s">
         <v>62</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="12"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="115"/>
-      <c r="K76" s="140" t="s">
+      <c r="I76" s="133"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L76" s="140"/>
-      <c r="M76" s="140"/>
-      <c r="N76" s="140"/>
-      <c r="O76" s="140"/>
-      <c r="P76" s="140"/>
-      <c r="Q76" s="141"/>
+      <c r="L76" s="53"/>
+      <c r="M76" s="53"/>
+      <c r="N76" s="53"/>
+      <c r="O76" s="53"/>
+      <c r="P76" s="53"/>
+      <c r="Q76" s="54"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="83"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="12"/>
-      <c r="E77" s="83"/>
+      <c r="E77" s="52"/>
       <c r="F77" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="12"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="113" t="s">
+      <c r="I77" s="133"/>
+      <c r="J77" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="K77" s="138" t="s">
+      <c r="K77" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L77" s="138"/>
-      <c r="M77" s="138"/>
-      <c r="N77" s="138"/>
-      <c r="O77" s="138"/>
-      <c r="P77" s="138"/>
-      <c r="Q77" s="139"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="57"/>
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="57"/>
+      <c r="Q77" s="58"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="82" t="s">
+      <c r="A78" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="11"/>
-      <c r="E78" s="82" t="s">
+      <c r="E78" s="51" t="s">
         <v>65</v>
       </c>
       <c r="F78" s="8" t="s">
@@ -6286,99 +6286,99 @@
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="11"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="115"/>
-      <c r="K78" s="140" t="s">
+      <c r="I78" s="133"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L78" s="140"/>
-      <c r="M78" s="140"/>
-      <c r="N78" s="140"/>
-      <c r="O78" s="140"/>
-      <c r="P78" s="140"/>
-      <c r="Q78" s="141"/>
+      <c r="L78" s="53"/>
+      <c r="M78" s="53"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="53"/>
+      <c r="P78" s="53"/>
+      <c r="Q78" s="54"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="83"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="12"/>
-      <c r="E79" s="83"/>
+      <c r="E79" s="52"/>
       <c r="F79" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="12"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="113" t="s">
+      <c r="I79" s="133"/>
+      <c r="J79" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="K79" s="138" t="s">
+      <c r="K79" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L79" s="138"/>
-      <c r="M79" s="138"/>
-      <c r="N79" s="138"/>
-      <c r="O79" s="138"/>
-      <c r="P79" s="138"/>
-      <c r="Q79" s="139"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="58"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="83"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="12"/>
-      <c r="E80" s="83"/>
+      <c r="E80" s="52"/>
       <c r="F80" s="9" t="s">
         <v>62</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="12"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="115"/>
-      <c r="K80" s="140" t="s">
+      <c r="I80" s="133"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L80" s="140"/>
-      <c r="M80" s="140"/>
-      <c r="N80" s="140"/>
-      <c r="O80" s="140"/>
-      <c r="P80" s="140"/>
-      <c r="Q80" s="141"/>
+      <c r="L80" s="53"/>
+      <c r="M80" s="53"/>
+      <c r="N80" s="53"/>
+      <c r="O80" s="53"/>
+      <c r="P80" s="53"/>
+      <c r="Q80" s="54"/>
     </row>
     <row r="81" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="83"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="12"/>
-      <c r="E81" s="83"/>
+      <c r="E81" s="52"/>
       <c r="F81" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="12"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="113" t="s">
+      <c r="I81" s="133"/>
+      <c r="J81" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="K81" s="138" t="s">
+      <c r="K81" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L81" s="138"/>
-      <c r="M81" s="138"/>
-      <c r="N81" s="138"/>
-      <c r="O81" s="138"/>
-      <c r="P81" s="138"/>
-      <c r="Q81" s="139"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="57"/>
+      <c r="N81" s="57"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="58"/>
     </row>
     <row r="82" spans="1:17" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="82" t="s">
+      <c r="A82" s="51" t="s">
         <v>55</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="11"/>
-      <c r="E82" s="82" t="s">
+      <c r="E82" s="51" t="s">
         <v>66</v>
       </c>
       <c r="F82" s="8" t="s">
@@ -6394,97 +6394,97 @@
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="11"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="142"/>
-      <c r="K82" s="140" t="s">
+      <c r="I82" s="133"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L82" s="140"/>
-      <c r="M82" s="140"/>
-      <c r="N82" s="140"/>
-      <c r="O82" s="140"/>
-      <c r="P82" s="140"/>
-      <c r="Q82" s="141"/>
+      <c r="L82" s="53"/>
+      <c r="M82" s="53"/>
+      <c r="N82" s="53"/>
+      <c r="O82" s="53"/>
+      <c r="P82" s="53"/>
+      <c r="Q82" s="54"/>
     </row>
     <row r="83" spans="1:17" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="83"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="12"/>
-      <c r="E83" s="83"/>
+      <c r="E83" s="52"/>
       <c r="F83" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="12"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="122" t="s">
+      <c r="I83" s="133"/>
+      <c r="J83" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="K83" s="123" t="s">
+      <c r="K83" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="L83" s="123"/>
-      <c r="M83" s="123"/>
-      <c r="N83" s="123"/>
-      <c r="O83" s="123"/>
-      <c r="P83" s="123"/>
-      <c r="Q83" s="124"/>
+      <c r="L83" s="71"/>
+      <c r="M83" s="71"/>
+      <c r="N83" s="71"/>
+      <c r="O83" s="71"/>
+      <c r="P83" s="71"/>
+      <c r="Q83" s="72"/>
     </row>
     <row r="84" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="83"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="12"/>
-      <c r="E84" s="83"/>
+      <c r="E84" s="52"/>
       <c r="F84" s="9" t="s">
         <v>62</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="115"/>
-      <c r="K84" s="120" t="s">
+      <c r="I84" s="133"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="L84" s="120"/>
-      <c r="M84" s="120"/>
-      <c r="N84" s="120"/>
-      <c r="O84" s="120"/>
-      <c r="P84" s="120"/>
-      <c r="Q84" s="121"/>
+      <c r="L84" s="73"/>
+      <c r="M84" s="73"/>
+      <c r="N84" s="73"/>
+      <c r="O84" s="73"/>
+      <c r="P84" s="73"/>
+      <c r="Q84" s="74"/>
     </row>
     <row r="85" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="87"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="13"/>
-      <c r="E85" s="87"/>
+      <c r="E85" s="66"/>
       <c r="F85" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="13"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="149" t="s">
+      <c r="I85" s="133"/>
+      <c r="J85" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="K85" s="150"/>
-      <c r="L85" s="150"/>
-      <c r="M85" s="150"/>
-      <c r="N85" s="150"/>
-      <c r="O85" s="150"/>
-      <c r="P85" s="150"/>
-      <c r="Q85" s="151"/>
+      <c r="K85" s="76"/>
+      <c r="L85" s="76"/>
+      <c r="M85" s="76"/>
+      <c r="N85" s="76"/>
+      <c r="O85" s="76"/>
+      <c r="P85" s="76"/>
+      <c r="Q85" s="77"/>
     </row>
     <row r="86" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="51" t="s">
         <v>56</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="11"/>
-      <c r="E86" s="82" t="s">
+      <c r="E86" s="51" t="s">
         <v>67</v>
       </c>
       <c r="F86" s="8" t="s">
@@ -6500,87 +6500,87 @@
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="11"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="152"/>
-      <c r="K86" s="153"/>
-      <c r="L86" s="153"/>
-      <c r="M86" s="153"/>
-      <c r="N86" s="153"/>
-      <c r="O86" s="153"/>
-      <c r="P86" s="153"/>
-      <c r="Q86" s="154"/>
+      <c r="I86" s="133"/>
+      <c r="J86" s="78"/>
+      <c r="K86" s="79"/>
+      <c r="L86" s="79"/>
+      <c r="M86" s="79"/>
+      <c r="N86" s="79"/>
+      <c r="O86" s="79"/>
+      <c r="P86" s="79"/>
+      <c r="Q86" s="80"/>
     </row>
     <row r="87" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="83"/>
+      <c r="A87" s="52"/>
       <c r="B87" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="12"/>
-      <c r="E87" s="83"/>
+      <c r="E87" s="52"/>
       <c r="F87" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="12"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="143"/>
-      <c r="K87" s="144"/>
-      <c r="L87" s="144"/>
-      <c r="M87" s="144"/>
-      <c r="N87" s="144"/>
-      <c r="O87" s="144"/>
-      <c r="P87" s="144"/>
-      <c r="Q87" s="145"/>
+      <c r="I87" s="133"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="61"/>
+      <c r="M87" s="61"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="61"/>
+      <c r="P87" s="61"/>
+      <c r="Q87" s="62"/>
     </row>
     <row r="88" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="83"/>
+      <c r="A88" s="52"/>
       <c r="B88" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="12"/>
-      <c r="E88" s="83"/>
+      <c r="E88" s="52"/>
       <c r="F88" s="9" t="s">
         <v>62</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="12"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="143"/>
-      <c r="K88" s="144"/>
-      <c r="L88" s="144"/>
-      <c r="M88" s="144"/>
-      <c r="N88" s="144"/>
-      <c r="O88" s="144"/>
-      <c r="P88" s="144"/>
-      <c r="Q88" s="145"/>
+      <c r="I88" s="133"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="61"/>
+      <c r="M88" s="61"/>
+      <c r="N88" s="61"/>
+      <c r="O88" s="61"/>
+      <c r="P88" s="61"/>
+      <c r="Q88" s="62"/>
     </row>
     <row r="89" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="87"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="13"/>
-      <c r="E89" s="87"/>
+      <c r="E89" s="66"/>
       <c r="F89" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G89" s="10"/>
       <c r="H89" s="13"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="143"/>
-      <c r="K89" s="144"/>
-      <c r="L89" s="144"/>
-      <c r="M89" s="144"/>
-      <c r="N89" s="144"/>
-      <c r="O89" s="144"/>
-      <c r="P89" s="144"/>
-      <c r="Q89" s="145"/>
+      <c r="I89" s="133"/>
+      <c r="J89" s="60"/>
+      <c r="K89" s="61"/>
+      <c r="L89" s="61"/>
+      <c r="M89" s="61"/>
+      <c r="N89" s="61"/>
+      <c r="O89" s="61"/>
+      <c r="P89" s="61"/>
+      <c r="Q89" s="62"/>
     </row>
     <row r="90" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="82" t="s">
+      <c r="A90" s="51" t="s">
         <v>57</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="11"/>
-      <c r="E90" s="82" t="s">
+      <c r="E90" s="51" t="s">
         <v>68</v>
       </c>
       <c r="F90" s="8" t="s">
@@ -6596,168 +6596,214 @@
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="11"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="143"/>
-      <c r="K90" s="144"/>
-      <c r="L90" s="144"/>
-      <c r="M90" s="144"/>
-      <c r="N90" s="144"/>
-      <c r="O90" s="144"/>
-      <c r="P90" s="144"/>
-      <c r="Q90" s="145"/>
+      <c r="I90" s="133"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="61"/>
+      <c r="P90" s="61"/>
+      <c r="Q90" s="62"/>
     </row>
     <row r="91" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="83"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="12"/>
-      <c r="E91" s="83"/>
+      <c r="E91" s="52"/>
       <c r="F91" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="12"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="143"/>
-      <c r="K91" s="144"/>
-      <c r="L91" s="144"/>
-      <c r="M91" s="144"/>
-      <c r="N91" s="144"/>
-      <c r="O91" s="144"/>
-      <c r="P91" s="144"/>
-      <c r="Q91" s="145"/>
+      <c r="I91" s="133"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="61"/>
+      <c r="L91" s="61"/>
+      <c r="M91" s="61"/>
+      <c r="N91" s="61"/>
+      <c r="O91" s="61"/>
+      <c r="P91" s="61"/>
+      <c r="Q91" s="62"/>
     </row>
     <row r="92" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="83"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="12"/>
-      <c r="E92" s="83"/>
+      <c r="E92" s="52"/>
       <c r="F92" s="9" t="s">
         <v>62</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="12"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="143"/>
-      <c r="K92" s="144"/>
-      <c r="L92" s="144"/>
-      <c r="M92" s="144"/>
-      <c r="N92" s="144"/>
-      <c r="O92" s="144"/>
-      <c r="P92" s="144"/>
-      <c r="Q92" s="145"/>
+      <c r="I92" s="133"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="61"/>
+      <c r="L92" s="61"/>
+      <c r="M92" s="61"/>
+      <c r="N92" s="61"/>
+      <c r="O92" s="61"/>
+      <c r="P92" s="61"/>
+      <c r="Q92" s="62"/>
     </row>
     <row r="93" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="87"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="13"/>
-      <c r="E93" s="87"/>
+      <c r="E93" s="66"/>
       <c r="F93" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G93" s="10"/>
       <c r="H93" s="13"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="143"/>
-      <c r="K93" s="144"/>
-      <c r="L93" s="144"/>
-      <c r="M93" s="144"/>
-      <c r="N93" s="144"/>
-      <c r="O93" s="144"/>
-      <c r="P93" s="144"/>
-      <c r="Q93" s="145"/>
+      <c r="I93" s="133"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="61"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="61"/>
+      <c r="N93" s="61"/>
+      <c r="O93" s="61"/>
+      <c r="P93" s="61"/>
+      <c r="Q93" s="62"/>
     </row>
     <row r="94" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="96" t="s">
+      <c r="A94" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="B94" s="97"/>
-      <c r="C94" s="97"/>
-      <c r="D94" s="98"/>
-      <c r="E94" s="97" t="s">
+      <c r="B94" s="68"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="F94" s="97"/>
-      <c r="G94" s="97"/>
-      <c r="H94" s="98"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="143"/>
-      <c r="K94" s="144"/>
-      <c r="L94" s="144"/>
-      <c r="M94" s="144"/>
-      <c r="N94" s="144"/>
-      <c r="O94" s="144"/>
-      <c r="P94" s="144"/>
-      <c r="Q94" s="145"/>
+      <c r="F94" s="68"/>
+      <c r="G94" s="68"/>
+      <c r="H94" s="69"/>
+      <c r="I94" s="133"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="61"/>
+      <c r="L94" s="61"/>
+      <c r="M94" s="61"/>
+      <c r="N94" s="61"/>
+      <c r="O94" s="61"/>
+      <c r="P94" s="61"/>
+      <c r="Q94" s="62"/>
     </row>
     <row r="95" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="96" t="s">
+      <c r="A95" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B95" s="97"/>
-      <c r="C95" s="97"/>
-      <c r="D95" s="97"/>
-      <c r="E95" s="97"/>
-      <c r="F95" s="97"/>
-      <c r="G95" s="97"/>
-      <c r="H95" s="98"/>
-      <c r="I95" s="56"/>
-      <c r="J95" s="146"/>
-      <c r="K95" s="147"/>
-      <c r="L95" s="147"/>
-      <c r="M95" s="147"/>
-      <c r="N95" s="147"/>
-      <c r="O95" s="147"/>
-      <c r="P95" s="147"/>
-      <c r="Q95" s="148"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="68"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="133"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="64"/>
+      <c r="L95" s="64"/>
+      <c r="M95" s="64"/>
+      <c r="N95" s="64"/>
+      <c r="O95" s="64"/>
+      <c r="P95" s="64"/>
+      <c r="Q95" s="65"/>
     </row>
     <row r="96" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="142">
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="J68:Q68"/>
+    <mergeCell ref="J85:Q86"/>
+    <mergeCell ref="J87:Q95"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="J36:Q38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="J67:Q67"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="A95:H95"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="J77:J78"/>
     <mergeCell ref="J34:Q34"/>
     <mergeCell ref="K41:Q41"/>
     <mergeCell ref="J42:J44"/>
@@ -6782,89 +6828,43 @@
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A50:A53"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A74:A77"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A67:H67"/>
-    <mergeCell ref="A95:H95"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="K49:Q49"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="J36:Q38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="J67:Q67"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="K60:Q60"/>
-    <mergeCell ref="K61:Q61"/>
-    <mergeCell ref="K62:Q62"/>
-    <mergeCell ref="K63:Q63"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:Q83"/>
-    <mergeCell ref="K84:Q84"/>
-    <mergeCell ref="J68:Q68"/>
-    <mergeCell ref="J85:Q86"/>
-    <mergeCell ref="J87:Q95"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="K75:Q75"/>
-    <mergeCell ref="K76:Q76"/>
-    <mergeCell ref="K77:Q77"/>
-    <mergeCell ref="K78:Q78"/>
-    <mergeCell ref="K79:Q79"/>
-    <mergeCell ref="K80:Q80"/>
-    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
